--- a/Code/Inserir_Push.xlsx
+++ b/Code/Inserir_Push.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Processos Incluir</t>
   </si>
@@ -53,33 +53,6 @@
   </si>
   <si>
     <t>0009456-88.2016.4.03.6144</t>
-  </si>
-  <si>
-    <t>0009555-95.2004.4.03.6106</t>
-  </si>
-  <si>
-    <t>0009624-13.2016.4.03.6105</t>
-  </si>
-  <si>
-    <t>0009659-50.2016.4.03.6144</t>
-  </si>
-  <si>
-    <t>0009684-27.2008.4.03.6182</t>
-  </si>
-  <si>
-    <t>0009731-46.2005.4.03.6104</t>
-  </si>
-  <si>
-    <t>0009749-27.2011.4.03.6114</t>
-  </si>
-  <si>
-    <t>0009789-69.2016.4.03.6102</t>
-  </si>
-  <si>
-    <t>0009798-02.2016.4.03.6144</t>
-  </si>
-  <si>
-    <t>0009839-95.2016.4.03.6102</t>
   </si>
 </sst>
 </file>
@@ -500,7 +473,7 @@
   <dimension ref="A1:G5428"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
@@ -536,50 +509,32 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="A6" s="2"/>
     </row>
     <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="A7" s="2"/>
     </row>
     <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="A8" s="2"/>
     </row>
     <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="A9" s="2"/>
     </row>
     <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="A10" s="2"/>
       <c r="G10" s="3"/>
     </row>
     <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="A11" s="2"/>
     </row>
     <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="A12" s="2"/>
     </row>
     <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="A13" s="2"/>
     </row>
     <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="A14" s="2"/>
     </row>
     <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
